--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-991746.9825249504</v>
+        <v>-997035.0980197224</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791239</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12928267.94473053</v>
+        <v>12926498.00655927</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>99.56967801413619</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>182.4988455748805</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226354</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0959195979444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>255.9116134808057</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>120.8500475525138</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>83.27720313305504</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>136.2610204655467</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.295474296812</v>
+        <v>99.53691865543139</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>129.6022067968811</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>102.3793722788683</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>288.6620028711845</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>361.4698460312814</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>165.6158245190445</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>48.07680521916976</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>242.2225355804887</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>220.3977021431871</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372792</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993877</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>25.15681704768192</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681701</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338906</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>31.79047145653502</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>72.11388826217922</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>6.897481179122422</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>19.93468782187304</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>111.7580424067406</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,7 +1904,7 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658114</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879329</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838894</v>
+        <v>24.17382596574977</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828906</v>
+        <v>52.06849973564989</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431739</v>
+        <v>70.57601873167822</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459979</v>
+        <v>55.72314698196062</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643952</v>
+        <v>41.29686219380035</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931863</v>
+        <v>41.22330424667946</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390859</v>
+        <v>42.97275566644673</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147803</v>
+        <v>53.79159358883886</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805008</v>
+        <v>41.14384575541091</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922201</v>
+        <v>18.98356133658284</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367792</v>
+        <v>9.882059701038756</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920524</v>
+        <v>88.00800320656607</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,7 +3275,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412925</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
         <v>236.9290753658111</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978639</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,7 +3512,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412925</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
         <v>236.9290753658111</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978639</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>853.4966989627537</v>
+        <v>1667.319467118883</v>
       </c>
       <c r="C2" t="n">
-        <v>853.4966989627537</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="D2" t="n">
-        <v>468.0555701794214</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="E2" t="n">
-        <v>65.47204529596594</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634777</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>1058.738054302316</v>
       </c>
       <c r="N2" t="n">
-        <v>2106.518148697129</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.78296973775</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.78296973775</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964322</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T2" t="n">
-        <v>1869.701068626811</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.94833906141</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.94833906141</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="W2" t="n">
-        <v>1242.949304029697</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="X2" t="n">
-        <v>853.4966989627537</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="Y2" t="n">
-        <v>853.4966989627537</v>
+        <v>1667.319467118883</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021447</v>
+        <v>556.1927859813161</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622369</v>
+        <v>405.5385555414083</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837172</v>
+        <v>275.4495881628886</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946049</v>
+        <v>139.0030972737763</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777367</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777367</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475499</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475499</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653876</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>921.5731989359451</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466462</v>
+        <v>1435.175877545633</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675987</v>
+        <v>887.3033373467701</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.609752343106</v>
+        <v>707.9891204222774</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475499</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475499</v>
+        <v>197.1363598538237</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T4" t="n">
-        <v>585.3226407371185</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U4" t="n">
-        <v>326.8260614635774</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="V4" t="n">
-        <v>326.8260614635774</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="W4" t="n">
-        <v>43.49565939475499</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475499</v>
+        <v>382.344378545125</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475499</v>
+        <v>382.344378545125</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1266.728354873844</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="C5" t="n">
-        <v>873.5528533767741</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D5" t="n">
-        <v>873.5528533767741</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>873.5528533767741</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067519</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475499</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>169.78387732102</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K5" t="n">
-        <v>528.7662333484818</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="L5" t="n">
-        <v>1022.086525067011</v>
+        <v>74.88432743274643</v>
       </c>
       <c r="M5" t="n">
-        <v>1022.086525067011</v>
+        <v>588.4870060424344</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.897808704473</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596801</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>2052.671669020186</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T5" t="n">
-        <v>2052.671669020186</v>
+        <v>1733.01847463385</v>
       </c>
       <c r="U5" t="n">
-        <v>2052.671669020186</v>
+        <v>1733.01847463385</v>
       </c>
       <c r="V5" t="n">
-        <v>2052.671669020186</v>
+        <v>1733.01847463385</v>
       </c>
       <c r="W5" t="n">
-        <v>2052.671669020186</v>
+        <v>1733.01847463385</v>
       </c>
       <c r="X5" t="n">
-        <v>1663.219063953242</v>
+        <v>1733.01847463385</v>
       </c>
       <c r="Y5" t="n">
-        <v>1266.728354873844</v>
+        <v>1733.01847463385</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>791.481975908281</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>510.7387780898535</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>249.860481083873</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1534.796509466462</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466462</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1974.619995740728</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1764.55685241937</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1542.016850790437</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1311.899604923723</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1122.592527273735</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>943.2783103492424</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.1287724922402</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1287724922402</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475499</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>841.5291745839152</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X7" t="n">
-        <v>607.4488523668982</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="Y7" t="n">
-        <v>384.3367911835415</v>
+        <v>659.6198672290686</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1604.036739400527</v>
+        <v>1530.670136571906</v>
       </c>
       <c r="C8" t="n">
-        <v>1604.036739400527</v>
+        <v>1137.494635074837</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.036739400527</v>
+        <v>752.0535062915046</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>752.0535062915046</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4808,13 +4808,13 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O8" t="n">
         <v>2017.461012945658</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>2000.527448479926</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1604.036739400527</v>
+        <v>1931.164882283303</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
         <v>1960.027136360783</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.1512011330396</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="C10" t="n">
-        <v>202.9460831990289</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="X10" t="n">
-        <v>781.4712810076976</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.3592198243409</v>
+        <v>379.0397195389182</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>1611.414556352054</v>
       </c>
       <c r="C11" t="n">
-        <v>1290.035330001179</v>
+        <v>1366.745328492976</v>
       </c>
       <c r="D11" t="n">
-        <v>1290.035330001179</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>722.3132251185757</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185755</v>
+        <v>722.3132251185757</v>
       </c>
       <c r="G11" t="n">
         <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5078,7 +5078,7 @@
         <v>2556.972116723525</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838007</v>
+        <v>2257.769356838006</v>
       </c>
       <c r="X11" t="n">
         <v>1940.113026917257</v>
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>511.1396386607271</v>
+        <v>569.5655503012283</v>
       </c>
       <c r="C13" t="n">
-        <v>412.7307958729101</v>
+        <v>471.1567075134114</v>
       </c>
       <c r="D13" t="n">
-        <v>412.7307958729101</v>
+        <v>387.3198695621201</v>
       </c>
       <c r="E13" t="n">
-        <v>328.9682588783064</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675166</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="U13" t="n">
-        <v>1149.685342236449</v>
+        <v>1283.090125202603</v>
       </c>
       <c r="V13" t="n">
-        <v>1149.685342236449</v>
+        <v>1088.907055169621</v>
       </c>
       <c r="W13" t="n">
-        <v>938.1512153138206</v>
+        <v>877.3729282469922</v>
       </c>
       <c r="X13" t="n">
-        <v>775.8671682429974</v>
+        <v>715.0888811761691</v>
       </c>
       <c r="Y13" t="n">
-        <v>624.5513822058346</v>
+        <v>682.9772938463358</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2033.222718167679</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1711.843491816803</v>
       </c>
       <c r="D14" t="n">
         <v>1398.198638179665</v>
@@ -5264,10 +5264,10 @@
         <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185754</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U14" t="n">
-        <v>3004.271952586836</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>3004.271952586836</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>3004.271952586836</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X14" t="n">
-        <v>2686.615622666087</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="Y14" t="n">
-        <v>2361.921188732882</v>
+        <v>2106.065029543618</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.4129340497495</v>
+        <v>460.2285883998838</v>
       </c>
       <c r="C16" t="n">
-        <v>473.0040912619326</v>
+        <v>460.2285883998838</v>
       </c>
       <c r="D16" t="n">
-        <v>389.1672533106412</v>
+        <v>376.3917504485926</v>
       </c>
       <c r="E16" t="n">
-        <v>305.4047163160376</v>
+        <v>292.629213453989</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752044</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
         <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1365.712833143251</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1365.712833143251</v>
+        <v>988.1475398457737</v>
       </c>
       <c r="V16" t="n">
-        <v>1171.529763110269</v>
+        <v>793.9644698127919</v>
       </c>
       <c r="W16" t="n">
-        <v>959.9956361876401</v>
+        <v>773.8284215078696</v>
       </c>
       <c r="X16" t="n">
-        <v>797.7115891168171</v>
+        <v>611.5443744370466</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.8246775948569</v>
+        <v>460.2285883998838</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5525,7 +5525,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5598,10 +5598,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>806.619390679759</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214671</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411573</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222407</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6206,58 +6206,58 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.395388107029</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,7 +6312,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6461,10 +6461,10 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388005</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662623</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
         <v>1100.286794884791</v>
@@ -6491,7 +6491,7 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>813.7807714052482</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>813.7807714052482</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1645.563044338376</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6598,7 +6598,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
@@ -6613,7 +6613,7 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6622,49 +6622,49 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>299.6075039955991</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>658.589860023061</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.91015174159</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.91105178617</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423633</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315961</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174553</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042572</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1636.997709070526</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>2153.517991661507</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652535</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.73045008374189</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812062</v>
+        <v>425.1699371610697</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194702</v>
+        <v>611.4615154993337</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777496</v>
+        <v>906.3032701055258</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1300.536323498795</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250178</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.7257283273673</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400701</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.1532258045785</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7023,16 +7023,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128481</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511122</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823213</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240293</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162813</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,7 +7196,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7208,13 +7208,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443166</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7342,40 +7342,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,22 +7436,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7497,10 +7497,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7652,13 +7652,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,13 +7667,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222422</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184705</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567345</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879436</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296516</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7982,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>192.9080169436486</v>
       </c>
       <c r="O2" t="n">
-        <v>218.5182021115923</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>533.3182154539913</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886041</v>
+        <v>537.1052683063413</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>245.2436944335229</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>186.9664330399947</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920144</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8301,16 +8301,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837493</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N6" t="n">
-        <v>122.3638814211834</v>
+        <v>458.3732307488505</v>
       </c>
       <c r="O6" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8456,16 +8456,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>155.1237765063188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>546.2342719955939</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8532,19 +8532,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>99.852421747409</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>353.4472259067894</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,10 +8775,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>577.006990218999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,10 +9012,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9173,13 +9173,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826963</v>
       </c>
       <c r="O17" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9246,13 +9246,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,13 +10188,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>514.9863735190106</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>92.38712204931191</v>
@@ -10203,13 +10203,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>609.6292336665848</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10434,16 +10434,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069888</v>
       </c>
       <c r="N33" t="n">
-        <v>108.8653421701425</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10671,19 +10671,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N36" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>220.8844470939643</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939643</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>75.94289850687809</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>107.0816750967019</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.51754599674296</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>118.0121567202561</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>253.2975975973717</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>175.219408695893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>189.4840978315291</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.04458577005052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1132635.39106426</v>
+        <v>1131733.06964362</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1132635.39106426</v>
+        <v>1131733.06964362</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1010802.921865313</v>
+        <v>1010802.921865314</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1138739.165345947</v>
+        <v>1138739.165345946</v>
       </c>
     </row>
     <row r="8">
@@ -26320,13 +26320,13 @@
         <v>162298.9602840211</v>
       </c>
       <c r="E2" t="n">
+        <v>143423.1210819606</v>
+      </c>
+      <c r="F2" t="n">
         <v>143423.1210819607</v>
       </c>
-      <c r="F2" t="n">
-        <v>143423.1210819606</v>
-      </c>
       <c r="G2" t="n">
-        <v>162298.9602840214</v>
+        <v>162298.9602840215</v>
       </c>
       <c r="H2" t="n">
         <v>162298.9602840215</v>
@@ -26344,16 +26344,16 @@
         <v>162298.9602840208</v>
       </c>
       <c r="M2" t="n">
+        <v>162298.9602840215</v>
+      </c>
+      <c r="N2" t="n">
+        <v>162298.9602840215</v>
+      </c>
+      <c r="O2" t="n">
+        <v>162298.9602840215</v>
+      </c>
+      <c r="P2" t="n">
         <v>162298.9602840214</v>
-      </c>
-      <c r="N2" t="n">
-        <v>162298.9602840214</v>
-      </c>
-      <c r="O2" t="n">
-        <v>162298.9602840214</v>
-      </c>
-      <c r="P2" t="n">
-        <v>162298.9602840215</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668199</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728552</v>
+        <v>62456.24177539679</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962295</v>
+        <v>43252.52447081114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277129</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746776</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746776</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>112797.3745002077</v>
+        <v>112797.3745002078</v>
       </c>
       <c r="F4" t="n">
         <v>112797.3745002078</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,13 +26497,13 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-286405.4970669434</v>
+        <v>-282354.8250595288</v>
       </c>
       <c r="C6" t="n">
-        <v>-104200.5487750875</v>
+        <v>-108496.1680254737</v>
       </c>
       <c r="D6" t="n">
-        <v>-110792.6101148098</v>
+        <v>-118528.8993382016</v>
       </c>
       <c r="E6" t="n">
-        <v>-134682.8345921321</v>
+        <v>-134892.5661388218</v>
       </c>
       <c r="F6" t="n">
-        <v>-22560.27311808772</v>
+        <v>-22770.00466477727</v>
       </c>
       <c r="G6" t="n">
-        <v>-103852.4255599703</v>
+        <v>-103852.4255599701</v>
       </c>
       <c r="H6" t="n">
+        <v>-56427.10002328819</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-56427.10002328819</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-262952.7324660006</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-62666.86842607128</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-121898.2945711652</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-99679.62449409926</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-56427.10002328816</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-84194.79406605946</v>
+      </c>
+      <c r="P6" t="n">
         <v>-56427.10002328822</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-56427.10002328816</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-269469.0176205739</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-62666.86842607131</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-117849.4573606929</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-98627.92948291115</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-56427.10002328819</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-84194.7940660594</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-56427.10002328819</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,7 +26802,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6268397466069</v>
+        <v>78.07030221924599</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551348</v>
+        <v>17.58004954287428</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346411</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,19 +27379,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>121.6959184020413</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>210.0269564137243</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343598</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>66.31852263746067</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>26.67279035971239</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>110.8894714423329</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>81.5712163753049</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>85.00457595063082</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626865</v>
+        <v>75.67705502764922</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>26.15046864227571</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>178.1177257692659</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>124.0634912141375</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27916,7 +27916,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>24.08823298499232</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28023,16 +28023,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>66.12369447580221</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>172.8041353523533</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,19 +28755,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>28.01250026485243</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5.636002634528367</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,28 +28983,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634528637</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,23 +29217,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>28.01250026485263</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>30.27223765901141</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,13 +29533,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901226</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>86.27291196566605</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>43.49509683159852</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861254171</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031203</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,31 +30141,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30183,34 +30183,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>35.71049010668912</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>37.6129845773342</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -30414,40 +30414,40 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.636002634529973</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082783</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.636002634529465</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,37 +30852,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634530101</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30894,34 +30894,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34702,22 +34702,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>43.78952560586452</v>
       </c>
       <c r="O2" t="n">
-        <v>68.95436468749594</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>440.9310934046794</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344374</v>
+        <v>451.7331554521746</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>127.5638564911768</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>33.71826330950304</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35021,16 +35021,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N6" t="n">
-        <v>36.99176856701668</v>
+        <v>373.0011178946838</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35176,16 +35176,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>5.39872490859157</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.6704345714974</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>260.7596670179005</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,10 +35495,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>484.6198681696871</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,10 +35732,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,13 +35893,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449122</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35966,13 +35966,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724865</v>
+        <v>149.0995364028106</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133861</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>193.7979950868726</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751655991</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>247.8874524576761</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851013</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>424.9260266620924</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>516.9416747776959</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.383793691755</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184964</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066586</v>
+        <v>395.1996343381862</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227376</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="N33" t="n">
-        <v>23.49322931597588</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279118</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047504999</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>80.25061856046452</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N36" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>249.3850182462365</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>39.1672541168416</v>
       </c>
       <c r="R37" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724881</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529554</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>135.5123342397976</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37956,7 +37956,7 @@
         <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.092766644681948</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.3033249682118</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397976</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032134008</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38190,10 +38190,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
